--- a/otz/nizomlar.xlsx
+++ b/otz/nizomlar.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2732,12 +2732,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Taʼminotchilarni sifati va rivojlantirish</t>
+          <t>Texnik rivojlantirish</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ta’minotchilarni sifati va rivojlantirish boshqarmasi</t>
+          <t>Ilmiy-texnik tadqiqotlar bo‘limi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>84000</t>
+          <t>83100</t>
         </is>
       </c>
     </row>
@@ -2774,12 +2774,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ta’minotchilarni takomillashtirish bo‘limi</t>
+          <t>Ta’minotchilarni sifati va rivojlantirish boshqarmasi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>84100</t>
+          <t>84000</t>
         </is>
       </c>
     </row>
@@ -2801,24 +2801,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ishlab chiqarishni qo‘llab-quvvatlash va ta’minotchilarni sifat kafolati bo‘limi</t>
+          <t>Ta’minotchilarni takomillashtirish bo‘limi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>84200</t>
+          <t>84100</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Texnik rivojlantirish</t>
+          <t>Taʼminotchilarni sifati va rivojlantirish</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tizimlarni rivojlantirish boshqarmasi</t>
+          <t>Ishlab chiqarishni qo‘llab-quvvatlash va ta’minotchilarni sifat kafolati bo‘limi</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>84200</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>GM-GMS bo‘limi</t>
+          <t>Tizimlarni rivojlantirish boshqarmasi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>85100</t>
+          <t>85000</t>
         </is>
       </c>
     </row>
@@ -2882,12 +2882,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Standartlashtirish bo‘limi</t>
+          <t>GM-GMS bo‘limi</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>85200</t>
+          <t>85100</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2909,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Korporativ innovasiyalar bo‘limi</t>
+          <t>Standartlashtirish bo‘limi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>85300</t>
+          <t>85200</t>
         </is>
       </c>
     </row>
@@ -2936,10 +2936,37 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>Korporativ innovasiyalar bo‘limi</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85300</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Texnik rivojlantirish</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Asaka</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>Taqqoslov va tahlil bo‘limi</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>85400</t>
         </is>
@@ -2956,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E718"/>
+  <dimension ref="A1:E717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11001,7 +11028,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>REPAIR-1 A smena</t>
+          <t>REPAIR A smena</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -11028,12 +11055,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>REPAIR A smena</t>
+          <t>REPAIR-1 A smena</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>32504</t>
+          <t>32504A</t>
         </is>
       </c>
     </row>
@@ -11055,7 +11082,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>REPAIR-1 B smena</t>
+          <t>REPAIR B smena</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -11082,12 +11109,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>REPAIR B smena</t>
+          <t>REPAIR-1 B smena</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>32505</t>
+          <t>32505B</t>
         </is>
       </c>
     </row>
@@ -11109,7 +11136,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>REPAIR-1 D smena</t>
+          <t>REPAIR D smena</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -11136,12 +11163,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>REPAIR D smena</t>
+          <t>REPAIR-1 D smena</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>32506</t>
+          <t>32506D</t>
         </is>
       </c>
     </row>
@@ -21774,12 +21801,12 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>Ilmiy-texnik tadqiqotlar bo‘limi</t>
+          <t>Texnik tadqiqotlar bo‘linmasi</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>83100</t>
+          <t>83110</t>
         </is>
       </c>
     </row>
@@ -21801,12 +21828,12 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Texnik tadqiqotlar bo‘linmasi</t>
+          <t>Marketing va xalqaro hamkorlik bo‘linmasi</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>83110</t>
+          <t>83120</t>
         </is>
       </c>
     </row>
@@ -21828,12 +21855,12 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Marketing va xalqaro hamkorlik bo‘linmasi</t>
+          <t>Sanoat 4.0 muhandisligi bo‘limi</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>83120</t>
+          <t>83200</t>
         </is>
       </c>
     </row>
@@ -21855,12 +21882,12 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Sanoat 4.0 muhandisligi bo‘limi</t>
+          <t>Intellektual boshqaruv texnologiyalari bo‘linmasi</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>83200</t>
+          <t>83210</t>
         </is>
       </c>
     </row>
@@ -21882,12 +21909,12 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>Intellektual boshqaruv texnologiyalari bo‘linmasi</t>
+          <t>Sanoatni avtomatlashtirish va robototexnika bo‘linmasi</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>83210</t>
+          <t>83220</t>
         </is>
       </c>
     </row>
@@ -21909,24 +21936,24 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Sanoatni avtomatlashtirish va robototexnika bo‘linmasi</t>
+          <t>Raqamli grafik va dizayn bo‘linmasi</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>83220</t>
+          <t>83230</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Texnik rivojlantirish</t>
+          <t>Taʼminotchilarni sifati va rivojlantirish</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -21936,12 +21963,12 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>Raqamli grafik va dizayn bo‘linmasi</t>
+          <t>Ta’minotchilarni sifati va rivojlantirish boshqarmasi</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>83230</t>
+          <t>84000D</t>
         </is>
       </c>
     </row>
@@ -21968,7 +21995,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>84000D</t>
+          <t>840GM</t>
         </is>
       </c>
     </row>
@@ -21990,12 +22017,12 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Ta’minotchilarni sifati va rivojlantirish boshqarmasi</t>
+          <t>Kuzov bo‘linmasi</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>840GM</t>
+          <t>84110</t>
         </is>
       </c>
     </row>
@@ -22017,12 +22044,12 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>Kuzov bo‘linmasi</t>
+          <t>Eksterer bo‘linmasi</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>84110</t>
+          <t>84120</t>
         </is>
       </c>
     </row>
@@ -22044,12 +22071,12 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Eksterer bo‘linmasi</t>
+          <t>Interer va xavfsizlik bo‘linmasi</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>84120</t>
+          <t>84130</t>
         </is>
       </c>
     </row>
@@ -22071,12 +22098,12 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Interer va xavfsizlik bo‘linmasi</t>
+          <t>Shassi / kuchlanish qurilma va transmissiya bo‘linmasi</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>84130</t>
+          <t>84140</t>
         </is>
       </c>
     </row>
@@ -22098,12 +22125,12 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>Shassi / kuchlanish qurilma va transmissiya bo‘linmasi</t>
+          <t>HVAC tizimlari va elektrik qismlar bo‘linmasi</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>84140</t>
+          <t>84150</t>
         </is>
       </c>
     </row>
@@ -22125,12 +22152,12 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>HVAC tizimlari va elektrik qismlar bo‘linmasi</t>
+          <t>Ishlab chiqarishni qo‘llab-quvvatlash bo‘linmasi</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>84150</t>
+          <t>84210</t>
         </is>
       </c>
     </row>
@@ -22152,24 +22179,24 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>Ishlab chiqarishni qo‘llab-quvvatlash bo‘linmasi</t>
+          <t>Ta’minotchilarni sifat kafolati bo‘linmasi</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>84210</t>
+          <t>84220</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Taʼminotchilarni sifati va rivojlantirish</t>
+          <t>Texnik rivojlantirish</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -22179,12 +22206,12 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>Ta’minotchilarni sifat kafolati bo‘linmasi</t>
+          <t>Tizimlarni sertifikatlashtirish bo‘linmasi</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>84220</t>
+          <t>85210</t>
         </is>
       </c>
     </row>
@@ -22206,12 +22233,12 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>Tizimlarni sertifikatlashtirish bo‘linmasi</t>
+          <t>Ichki standartlarni takomillashtirish bo‘linmasi</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>85210</t>
+          <t>85220</t>
         </is>
       </c>
     </row>
@@ -22233,12 +22260,12 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>Ichki standartlarni takomillashtirish bo‘linmasi</t>
+          <t>Yakka tartibdagi “Kayzen” takliflari bilan ishlash guruhi</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>85220</t>
+          <t>85310</t>
         </is>
       </c>
     </row>
@@ -22260,12 +22287,12 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>Yakka tartibdagi “Kayzen” takliflari bilan ishlash guruhi</t>
+          <t>“Kayzen” guruhlari bilan ishlash guruhi</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>85310</t>
+          <t>85320</t>
         </is>
       </c>
     </row>
@@ -22287,12 +22314,12 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>“Kayzen” guruhlari bilan ishlash guruhi</t>
+          <t>Rejalashtirish va tahlil bo‘linmasi</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>85320</t>
+          <t>85410</t>
         </is>
       </c>
     </row>
@@ -22314,37 +22341,10 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>Rejalashtirish va tahlil bo‘linmasi</t>
+          <t>Funksional taqqoslash va takomillashtirish bo‘linmasi</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
-        <is>
-          <t>85410</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>Texnik rivojlantirish</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>Asaka</t>
-        </is>
-      </c>
-      <c r="D718" t="inlineStr">
-        <is>
-          <t>Funksional taqqoslash va takomillashtirish bo‘linmasi</t>
-        </is>
-      </c>
-      <c r="E718" t="inlineStr">
         <is>
           <t>85420</t>
         </is>
